--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1115718.641708927</v>
+        <v>-1118598.969868931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371383</v>
+        <v>10036405.55371386</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>81.74164504034464</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>94.3665166754367</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>160.5536704663411</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>66.94614978640953</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>208.342310594081</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>136.2174501039855</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>92.95892106249916</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>107.8232201722642</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>112.5230191874439</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.72570467000074</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.2832377900599</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>118.96213358952</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374755</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>153.9036548888918</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>190.1033901621217</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520906</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374755</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>48.98674026029497</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>199.7907912977688</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>23.94516103139618</v>
+        <v>23.94516103140631</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045446</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060082025</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376698</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561471</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952165</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>38.23508833617671</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>3.132302579332556</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584592</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045446</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082025</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2409,10 +2409,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.4224477376698</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561471</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952165</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>103.1983720868922</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.824156177155476</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584592</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1142.833972072221</v>
+        <v>1190.933235554094</v>
       </c>
       <c r="C2" t="n">
-        <v>773.8714551318094</v>
+        <v>821.9707186136825</v>
       </c>
       <c r="D2" t="n">
-        <v>773.8714551318094</v>
+        <v>463.705020006932</v>
       </c>
       <c r="E2" t="n">
-        <v>388.0832025335651</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F2" t="n">
         <v>381.1377017843616</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2546.800687735143</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2293.038902373235</v>
+        <v>2303.76748914941</v>
       </c>
       <c r="V2" t="n">
-        <v>2293.038902373235</v>
+        <v>2303.76748914941</v>
       </c>
       <c r="W2" t="n">
-        <v>2293.038902373235</v>
+        <v>1950.998833879296</v>
       </c>
       <c r="X2" t="n">
-        <v>1919.573144112155</v>
+        <v>1577.533075618216</v>
       </c>
       <c r="Y2" t="n">
-        <v>1529.433812136343</v>
+        <v>1577.533075618216</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5651556036578</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C4" t="n">
-        <v>290.5651556036578</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>290.5651556036578</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>290.5651556036578</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>121.5653553419903</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036578</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2074.587744557557</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1721.819089287443</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.819089287443</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>404.9282174162494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>404.9282174162494</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="W7" t="n">
-        <v>404.9282174162494</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="X7" t="n">
-        <v>404.9282174162494</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.683675137274</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C8" t="n">
-        <v>1315.683675137274</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D8" t="n">
-        <v>957.4179765305237</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E8" t="n">
-        <v>571.6297239322794</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>743.8406828867444</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>325.8768747849313</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,7 +4820,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.283515201396</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245972</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245972</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>513.8405610245972</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>513.8405610245972</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245972</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
         <v>842.9746074384018</v>
@@ -5048,25 +5048,25 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
@@ -5112,31 +5112,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>302.0892292003572</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L12" t="n">
-        <v>792.8215620441084</v>
+        <v>584.5806809953583</v>
       </c>
       <c r="M12" t="n">
-        <v>1384.839916296236</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.935879695572</v>
+        <v>1798.694998646822</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>2345.571473647016</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2345.571473647016</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.422008959557</v>
+        <v>782.0911747218001</v>
       </c>
       <c r="C13" t="n">
-        <v>930.4858260316502</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193144</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F13" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
         <v>318.3519507135898</v>
@@ -5194,7 +5194,7 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411609</v>
@@ -5227,22 +5227,22 @@
         <v>2429.412499335695</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.412499335695</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.954262074188</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V13" t="n">
-        <v>2019.269773868301</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.85260383134</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.863052933323</v>
+        <v>1184.53221869557</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.070473789797</v>
+        <v>963.7396395520399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5267,61 +5267,61 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160706</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294978</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234016</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151122</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149658</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L15" t="n">
-        <v>915.089423558717</v>
+        <v>584.580680995359</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.107777810845</v>
+        <v>1176.599035247487</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.203741210181</v>
+        <v>1798.694998646824</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2345.57147364702</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9011758612336</v>
+        <v>899.0584843522025</v>
       </c>
       <c r="C16" t="n">
-        <v>700.9649929333267</v>
+        <v>730.1223014242956</v>
       </c>
       <c r="D16" t="n">
-        <v>550.8483535209909</v>
+        <v>580.0056620119599</v>
       </c>
       <c r="E16" t="n">
-        <v>402.9352599385978</v>
+        <v>432.0925684295668</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>285.2026209316564</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131767</v>
+        <v>285.2026209316564</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160706</v>
+        <v>143.3299039700868</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.242309074625</v>
+        <v>2141.87437200858</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.433428975868</v>
+        <v>1852.798158323307</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.748940769981</v>
+        <v>1598.11367011742</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.331770733021</v>
+        <v>1308.69650008046</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.342219835003</v>
+        <v>1080.706949182442</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.549640691473</v>
+        <v>1080.706949182442</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234026</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160706</v>
+        <v>429.3821857744725</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2380436180413</v>
+        <v>920.1145186182245</v>
       </c>
       <c r="M18" t="n">
-        <v>965.2563978701667</v>
+        <v>1512.132872870353</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269501</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.228836269693</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5634,7 +5634,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.9550599890908</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C19" t="n">
         <v>538.7680286442462</v>
@@ -5659,64 +5659,64 @@
         <v>240.7382956495174</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074617</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526788999</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103726</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897839</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860878</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628607</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.6035248193306</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127633</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160599</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J20" t="n">
-        <v>424.143745001552</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287892303</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909295001</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234034</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151135</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610269</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297613</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403617</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815751</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084601</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683896</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149635</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0894235587116</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M21" t="n">
-        <v>1507.107777810836</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.203741210168</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599890858</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="C22" t="n">
-        <v>394.018877061179</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D22" t="n">
-        <v>243.9022376488432</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E22" t="n">
-        <v>243.9022376488432</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F22" t="n">
-        <v>97.01229015093287</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411601</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117223</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948547</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139312</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931017</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946045</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782248</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335682</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335682</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074612</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526788994</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103721</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897834</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860873</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628557</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193256</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127633</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160599</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507166</v>
+        <v>424.1437450015135</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892303</v>
+        <v>893.7741287891961</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909295001</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234034</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151135</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610269</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297613</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403617</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
         <v>4606.950144347201</v>
@@ -6023,7 +6023,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132384</v>
@@ -6032,7 +6032,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6042,61 +6042,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.0359474815751</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.5013895084601</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683896</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160706</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L24" t="n">
-        <v>142.6767696328016</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849256</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284258</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284449</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710522</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599890858</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C25" t="n">
-        <v>562.9550599890858</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D25" t="n">
-        <v>412.8384205767501</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E25" t="n">
-        <v>264.925326994357</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>264.925326994357</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>97.71113216893582</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>97.71113216893582</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411601</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117223</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948547</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139312</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931017</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946045</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782248</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335682</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335682</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074612</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526788994</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103721</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897834</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860873</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628557</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193256</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6704,22 +6704,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7254,22 +7254,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7728,19 +7728,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782909307</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>51.31264782911217</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.3126478291266</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782908357</v>
       </c>
       <c r="K23" t="n">
-        <v>51.31264782912666</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.1341397762273</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>122.0818036822211</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>90.67049704194822</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>10.24234275801382</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108626</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>132.2817966595287</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>35.60626522691544</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>32.81783648411398</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>86.39466025065161</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>143.3016600672317</v>
+        <v>143.3016600672215</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>141.5968918457606</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>162.4097502978344</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.8045767444094</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108412</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>64.04844901173564</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>77.98042056725393</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108412</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.293720896561331e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1097978.548309759</v>
+        <v>1097978.548309757</v>
       </c>
     </row>
     <row r="3">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152848.5021977673</v>
+        <v>152848.5021977671</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
         <v>181503.6698516759</v>
       </c>
       <c r="F2" t="n">
+        <v>181503.6698516758</v>
+      </c>
+      <c r="G2" t="n">
         <v>181503.6698516759</v>
       </c>
-      <c r="G2" t="n">
-        <v>181503.6698516757</v>
-      </c>
       <c r="H2" t="n">
-        <v>181503.6698516758</v>
+        <v>181503.6698516759</v>
       </c>
       <c r="I2" t="n">
         <v>181503.6698516758</v>
@@ -26347,7 +26347,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194636</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.258084694200079e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.515374715721313e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.225527121646641e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792275</v>
+        <v>183669.0093792214</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.1964869548</v>
+        <v>120178.1964869543</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855145</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855141</v>
+        <v>5781.971894854999</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855058</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855612</v>
+        <v>5781.971894855</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855613</v>
+        <v>5781.971894855013</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476389</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-640156.6515671414</v>
+        <v>-640510.9393007156</v>
       </c>
       <c r="C6" t="n">
         <v>-99189.18577167729</v>
       </c>
       <c r="D6" t="n">
-        <v>-99189.18577167726</v>
+        <v>-99189.18577167735</v>
       </c>
       <c r="E6" t="n">
-        <v>-861718.00695493</v>
+        <v>-861753.9039367943</v>
       </c>
       <c r="F6" t="n">
-        <v>74791.6584995822</v>
+        <v>74755.7615177167</v>
       </c>
       <c r="G6" t="n">
-        <v>74791.658499585</v>
+        <v>74755.76151771795</v>
       </c>
       <c r="H6" t="n">
-        <v>74791.65849958389</v>
+        <v>74755.76151771807</v>
       </c>
       <c r="I6" t="n">
-        <v>74791.6584995818</v>
+        <v>74755.76151771795</v>
       </c>
       <c r="J6" t="n">
-        <v>-108251.1468745537</v>
+        <v>-108285.8847999833</v>
       </c>
       <c r="K6" t="n">
-        <v>75417.86250467382</v>
+        <v>75383.12457923812</v>
       </c>
       <c r="L6" t="n">
-        <v>49084.11250715246</v>
+        <v>49084.11250715255</v>
       </c>
       <c r="M6" t="n">
-        <v>-55795.38088935293</v>
+        <v>-55795.38088935283</v>
       </c>
       <c r="N6" t="n">
-        <v>68511.83050078427</v>
+        <v>68511.83050078439</v>
       </c>
       <c r="O6" t="n">
-        <v>68511.83050078433</v>
+        <v>68511.8305007843</v>
       </c>
       <c r="P6" t="n">
-        <v>68511.83050078433</v>
+        <v>68511.83050078436</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716379</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716379</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,19 +26969,19 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.527665719100172e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625294969</v>
+        <v>9.934451625286556</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591158</v>
+        <v>673.8912089591163</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>113.5489018444557</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>300.1887250319172</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>89.22473905538561</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>191.5348083661494</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>293.2790175935544</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>178.4586540697135</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>139.6146241363842</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>308.1503410717107</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>206.6395349742973</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>22.82750184132351</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48.34766866953092</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-4.034570610778886e-13</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.241940132487798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>348.1857632660258</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745724</v>
@@ -31859,7 +31859,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>350.3260983776882</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>344.3187317059937</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P17" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>327.6251317733683</v>
       </c>
       <c r="L18" t="n">
-        <v>420.766193382333</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982436</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M19" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377398</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122254</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704048</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874041</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830395</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L20" t="n">
-        <v>861.543971036422</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529326</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229559</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086905</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687484</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148576</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987145</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854251</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665707</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901917</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.92106942554089</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088176</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K21" t="n">
-        <v>471.68865368482</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745692</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504263</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927599</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O21" t="n">
-        <v>571.493833823837</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862132</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821086</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013744</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44892648129183</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548556</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284888</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273324</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900871</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L22" t="n">
-        <v>364.08857886406</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265002</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416855</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465945</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282409</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561732</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860854</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851307</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551964</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704636</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377398</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122254</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704048</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874041</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830395</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.543971036422</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529326</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229559</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086905</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687484</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148576</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987145</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854251</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665707</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901917</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.92106942554089</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088176</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L24" t="n">
-        <v>187.8760176396666</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504263</v>
+        <v>672.0481308502308</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927599</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>694.996724242617</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982425</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286933</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862132</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821086</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013744</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44892648129183</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548556</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284888</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273324</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900871</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.08857886406</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265002</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416855</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465945</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282409</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561732</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860854</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851307</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551964</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704636</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,13 +34214,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35191,7 +35191,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806161015</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>210.3443242916668</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946982</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L14" t="n">
-        <v>677.0902038955318</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>210.3443242916634</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M17" t="n">
-        <v>779.6000841311674</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>189.7836927990093</v>
       </c>
       <c r="L18" t="n">
-        <v>282.2118136024588</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981739</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>333.6317139898444</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380589</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664347</v>
+        <v>677.0902038955228</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020533</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
-        <v>744.732300926365</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870037</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134789</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404081</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845824</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710461</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L21" t="n">
-        <v>495.689225094695</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284081</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094266</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O21" t="n">
-        <v>428.8975893793926</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065961</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642043</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243762</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883408</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209141</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606341</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931344</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044788</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607178</v>
+        <v>333.6317139898043</v>
       </c>
       <c r="K23" t="n">
-        <v>525.6867728671856</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664347</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020533</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.732300926365</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870037</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134789</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404081</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845824</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L24" t="n">
-        <v>49.32163785979242</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284081</v>
+        <v>529.9140969282124</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094266</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981726</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839122</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426718</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065961</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642043</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243762</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883408</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209141</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606341</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931344</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044788</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
